--- a/LeeVsTheWorld/Bug Tracker.xlsx
+++ b/LeeVsTheWorld/Bug Tracker.xlsx
@@ -113,7 +113,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -127,6 +127,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -433,7 +436,7 @@
   <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -500,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3">
-        <v>41395</v>
+        <v>41430</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -535,7 +538,9 @@
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="4">
+        <v>41437</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -567,7 +572,9 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="5">
+        <v>41437</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -599,7 +606,9 @@
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="4">
+        <v>41435</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -631,7 +640,9 @@
       <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="4">
+        <v>41435</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -663,7 +674,9 @@
       <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="4">
+        <v>41436</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>

--- a/LeeVsTheWorld/Bug Tracker.xlsx
+++ b/LeeVsTheWorld/Bug Tracker.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:T100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -626,7 +626,7 @@
     <row r="6" spans="1:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="4">
         <v>41428</v>
@@ -660,7 +660,7 @@
     <row r="7" spans="1:20" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4">
         <v>41431</v>
